--- a/WpfClient/Resources/ActPartsTemplate.xlsx
+++ b/WpfClient/Resources/ActPartsTemplate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\Desktop\FDSZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\RequestManagementSystem\WpfClient\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA12E8EB-083D-40BB-97F3-895705CA6311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEBA29-6548-42A5-BB1C-F7D34FBF3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,7 +288,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -305,66 +304,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -678,7 +667,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -705,11 +694,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5"/>
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
@@ -718,11 +707,11 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I7" s="2" t="s">
@@ -731,25 +720,25 @@
     </row>
     <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4" t="s">
@@ -758,16 +747,16 @@
       <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -775,69 +764,69 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -848,22 +837,22 @@
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -900,18 +889,18 @@
       <c r="B30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="25"/>
       <c r="H31" s="1" t="s">
         <v>28</v>
       </c>
@@ -923,23 +912,23 @@
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="25"/>
       <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
@@ -949,18 +938,18 @@
       <c r="B35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="21"/>
+      <c r="E36" s="25"/>
       <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
@@ -972,55 +961,52 @@
     </row>
     <row r="39" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="21"/>
+      <c r="E40" s="25"/>
       <c r="H40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G30:I30"/>
+  <mergeCells count="23">
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E9:I9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/WpfClient/Resources/ActPartsTemplate.xlsx
+++ b/WpfClient/Resources/ActPartsTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\RequestManagementSystem\WpfClient\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron41k\source\repos\Thron41k\RequestManagementSystem\WpfClient\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEEBA29-6548-42A5-BB1C-F7D34FBF3FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D31EA2-0D6C-45F3-94BE-C8E1E09513F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -162,6 +162,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -249,13 +256,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,9 +311,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -307,6 +320,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -352,8 +376,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,9 +436,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +471,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,9 +523,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,15 +722,15 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
@@ -694,10 +750,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
       <c r="E5"/>
       <c r="I5" s="2" t="s">
         <v>1</v>
@@ -707,11 +763,11 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I7" s="2" t="s">
@@ -720,25 +776,25 @@
     </row>
     <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4" t="s">
@@ -747,16 +803,16 @@
       <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -764,69 +820,69 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="20" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -837,22 +893,22 @@
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -889,18 +945,18 @@
       <c r="B30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="29"/>
       <c r="H31" s="1" t="s">
         <v>28</v>
       </c>
@@ -917,18 +973,18 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="29"/>
       <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
@@ -938,18 +994,18 @@
       <c r="B35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="29"/>
       <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
@@ -966,18 +1022,18 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="29"/>
       <c r="H40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1008,7 +1064,7 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="E9:I9"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WpfClient/Resources/ActPartsTemplate.xlsx
+++ b/WpfClient/Resources/ActPartsTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron41k\source\repos\Thron41k\RequestManagementSystem\WpfClient\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\RequestManagementSystem\WpfClient\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D31EA2-0D6C-45F3-94BE-C8E1E09513F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37A01C1-0C0B-4106-884C-6BDAFEBA431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -320,8 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -332,6 +331,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,39 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -396,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,9 +435,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,26 +470,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,26 +505,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,7 +688,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1640625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -735,7 +700,7 @@
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -764,10 +729,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="18"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I7" s="2" t="s">
@@ -776,25 +741,25 @@
     </row>
     <row r="8" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4" t="s">
@@ -803,16 +768,16 @@
       <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -820,69 +785,69 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
@@ -893,22 +858,22 @@
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="15"/>
       <c r="D21" s="6"/>
       <c r="E21" s="8"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="23" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -945,18 +910,18 @@
       <c r="B30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="26"/>
       <c r="H31" s="1" t="s">
         <v>28</v>
       </c>
@@ -973,18 +938,18 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="26"/>
       <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
@@ -994,18 +959,18 @@
       <c r="B35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="26"/>
       <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1022,30 +987,29 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="26"/>
       <c r="H40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E9:I9"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="A14:F14"/>
@@ -1058,11 +1022,12 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G30:I30"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
